--- a/recurring.xlsx
+++ b/recurring.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G38"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,22 +430,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B2" t="str">
-        <v>19682805</v>
+        <v>7015898062</v>
       </c>
       <c r="C2" t="str">
-        <v>6721669-AHM-1</v>
+        <v>01244279462-CORP-1</v>
       </c>
       <c r="D2" t="str">
-        <v>4166</v>
+        <v>250</v>
       </c>
       <c r="E2" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F2" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G2" t="str">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
@@ -453,13 +453,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B3" t="str">
-        <v>1148795355</v>
+        <v>7015898060</v>
       </c>
       <c r="C3" t="str">
-        <v>ILOGDATA001-CORP-1</v>
+        <v>01244279460-CORP-1</v>
       </c>
       <c r="D3" t="str">
-        <v>36000</v>
+        <v>250</v>
       </c>
       <c r="E3" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -468,7 +468,7 @@
         <v>Monthly</v>
       </c>
       <c r="G3" t="str">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B4" t="str">
-        <v>1307035590</v>
+        <v>1148795355</v>
       </c>
       <c r="C4" t="str">
-        <v>ILOGMOB001-CORP-1</v>
+        <v>ILOGDATA001-CORP-1</v>
       </c>
       <c r="D4" t="str">
-        <v>11000</v>
+        <v>36000</v>
       </c>
       <c r="E4" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -499,22 +499,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B5" t="str">
-        <v>19682805</v>
+        <v>7038063008</v>
       </c>
       <c r="C5" t="str">
-        <v>19682805</v>
+        <v>956298-PRI-CORP-1</v>
       </c>
       <c r="D5" t="str">
-        <v>6666</v>
+        <v>12000</v>
       </c>
       <c r="E5" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F5" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G5" t="str">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B6" t="str">
-        <v>7023500364</v>
+        <v>7010625278</v>
       </c>
       <c r="C6" t="str">
-        <v>012427961015_dsl_CORP-1</v>
+        <v>124451125048_DSL-CORP-1</v>
       </c>
       <c r="D6" t="str">
-        <v>1098</v>
+        <v>499</v>
       </c>
       <c r="E6" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -537,7 +537,7 @@
         <v>Monthly</v>
       </c>
       <c r="G6" t="str">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7">
@@ -545,22 +545,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B7" t="str">
-        <v>19682805</v>
+        <v>102-100038465</v>
       </c>
       <c r="C7" t="str">
-        <v>19682805-DEL-1</v>
+        <v>9810205476-CORP-1</v>
       </c>
       <c r="D7" t="str">
-        <v>5416</v>
+        <v>749</v>
       </c>
       <c r="E7" t="str">
-        <v>AWL - Delhi GTK Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F7" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G7" t="str">
-        <v>14</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8">
@@ -571,13 +571,13 @@
         <v>19682805</v>
       </c>
       <c r="C8" t="str">
-        <v>19682805-GGN-1</v>
+        <v>ILOGARAVALI001</v>
       </c>
       <c r="D8" t="str">
-        <v>6666</v>
+        <v>5417</v>
       </c>
       <c r="E8" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F8" t="str">
         <v>Quarterly</v>
@@ -588,154 +588,154 @@
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>AIRTEL</v>
+        <v>Microsoft Corporation (India) Private Limited</v>
       </c>
       <c r="B9" t="str">
-        <v>19682805</v>
+        <v>8004402038</v>
       </c>
       <c r="C9" t="str">
-        <v>19682805-GGN2-1</v>
+        <v>8004402038-AZURE</v>
       </c>
       <c r="D9" t="str">
-        <v>6666</v>
+        <v>53000</v>
       </c>
       <c r="E9" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F9" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G9" t="str">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>AIRTEL</v>
+        <v>Dream Net Services</v>
       </c>
       <c r="B10" t="str">
-        <v>102-100038465</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="C10" t="str">
-        <v>9810205476-CORP-1</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="D10" t="str">
-        <v>749</v>
+        <v>2916</v>
       </c>
       <c r="E10" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Bhiwandi Warehouse</v>
       </c>
       <c r="F10" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G10" t="str">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>AIRTEL</v>
+        <v>Elxire IT Services Private Limited</v>
       </c>
       <c r="B11" t="str">
-        <v>19682805</v>
+        <v>ILOGELX001</v>
       </c>
       <c r="C11" t="str">
-        <v>ILOGARAVALI001</v>
+        <v>ILOGELX001-GGN2-1</v>
       </c>
       <c r="D11" t="str">
         <v>5417</v>
       </c>
       <c r="E11" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F11" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G11" t="str">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>AIRTEL</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B12" t="str">
-        <v>31-40011108</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="C12" t="str">
-        <v>21-100031981-BLR</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="D12" t="str">
-        <v>5000</v>
+        <v>1250</v>
       </c>
       <c r="E12" t="str">
-        <v>AWL - Bangalore Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F12" t="str">
-        <v>Quarterly</v>
+        <v>Annually</v>
       </c>
       <c r="G12" t="str">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Alok Computers</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B13" t="str">
-        <v>ILOGALOK001</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="C13" t="str">
-        <v>ILOGALOK001-AHM-1</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="D13" t="str">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="E13" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F13" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G13" t="str">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Microsoft Corporation (India) Private Limited</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B14" t="str">
-        <v>8004402038</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="C14" t="str">
-        <v>8004402038-AZURE</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="D14" t="str">
-        <v>53000</v>
+        <v>1250</v>
       </c>
       <c r="E14" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F14" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G14" t="str">
-        <v>17</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>BS Services</v>
+        <v>MM Computer Communication</v>
       </c>
       <c r="B15" t="str">
-        <v>ILOGBS001</v>
+        <v>ILOGMM001</v>
       </c>
       <c r="C15" t="str">
-        <v>ILOGBS001-CORP-1</v>
+        <v>ILOGMM001-CORP-1</v>
       </c>
       <c r="D15" t="str">
-        <v>58750</v>
+        <v>150000</v>
       </c>
       <c r="E15" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -744,67 +744,67 @@
         <v>Monthly</v>
       </c>
       <c r="G15" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Dream Net Services</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B16" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="C16" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>ILOG001-TOUREN</v>
       </c>
       <c r="D16" t="str">
-        <v>2916</v>
+        <v>7500</v>
       </c>
       <c r="E16" t="str">
-        <v>AWL - Bhiwandi Warehouse</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F16" t="str">
-        <v>Annually</v>
+        <v>Quarterly</v>
       </c>
       <c r="G16" t="str">
-        <v>20</v>
+        <v>4</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Elxire IT Services Private Limited</v>
+        <v>Sify Technologies Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>ILOGELX001</v>
+        <v>413494</v>
       </c>
       <c r="C17" t="str">
-        <v>ILOGELX001-GGN2-1</v>
+        <v>413494-10-BOM-1</v>
       </c>
       <c r="D17" t="str">
-        <v>5417</v>
+        <v>9578</v>
       </c>
       <c r="E17" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Mumbai Warehouse</v>
       </c>
       <c r="F17" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G17" t="str">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Fretron Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B18" t="str">
-        <v>ILOGFRETRON</v>
+        <v>13871257</v>
       </c>
       <c r="C18" t="str">
-        <v>ILOGFRETRON</v>
+        <v>9899359989-RRP-1</v>
       </c>
       <c r="D18" t="str">
-        <v>16000</v>
+        <v>1000</v>
       </c>
       <c r="E18" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -813,50 +813,50 @@
         <v>Monthly</v>
       </c>
       <c r="G18" t="str">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Giga Network Communications</v>
+        <v>Amazon</v>
       </c>
       <c r="B19" t="str">
-        <v>ILOGGIGA001</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="C19" t="str">
-        <v>GIGA-HYD-1</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="D19" t="str">
-        <v>1650</v>
+        <v>999</v>
       </c>
       <c r="E19" t="str">
-        <v>AWL - Hyderabad Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F19" t="str">
-        <v>6 Months</v>
+        <v>Annually</v>
       </c>
       <c r="G19" t="str">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>GODADDY</v>
       </c>
       <c r="B20" t="str">
-        <v>01E9EF-56197C-C5A763</v>
+        <v>123960105</v>
       </c>
       <c r="C20" t="str">
-        <v>ILOG-GOOGLE-CLOUD</v>
+        <v>ILOGGODADDY001</v>
       </c>
       <c r="D20" t="str">
-        <v>17000</v>
+        <v>10764</v>
       </c>
       <c r="E20" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F20" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G20" t="str">
         <v>31</v>
@@ -864,39 +864,39 @@
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B21" t="str">
-        <v>1226-7792-2898</v>
+        <v>DBOXKIKAI001-SEO</v>
       </c>
       <c r="C21" t="str">
-        <v>ILOGGOOGEPX01</v>
+        <v>DBOXKIKAI001-SEO</v>
       </c>
       <c r="D21" t="str">
-        <v>1800</v>
+        <v>20000</v>
       </c>
       <c r="E21" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v/>
       </c>
       <c r="F21" t="str">
         <v>Monthly</v>
       </c>
       <c r="G21" t="str">
-        <v>31</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>JB Computers</v>
+        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
       </c>
       <c r="B22" t="str">
-        <v>ILOGJB001</v>
+        <v>NXT001</v>
       </c>
       <c r="C22" t="str">
-        <v>ILOGJB001-CORP-1</v>
+        <v>ILOGNXT001</v>
       </c>
       <c r="D22" t="str">
-        <v>27000</v>
+        <v>55000</v>
       </c>
       <c r="E22" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -905,21 +905,21 @@
         <v>Monthly</v>
       </c>
       <c r="G22" t="str">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>Yotta Infrastructure Solutions LLP</v>
       </c>
       <c r="B23" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>13348</v>
       </c>
       <c r="C23" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>ILOGYOTTA001</v>
       </c>
       <c r="D23" t="str">
-        <v>1250</v>
+        <v>1500</v>
       </c>
       <c r="E23" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -928,357 +928,12 @@
         <v>Annually</v>
       </c>
       <c r="G23" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="str">
-        <v>Knowlarity Communications Private Limited</v>
-      </c>
-      <c r="B24" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
-      </c>
-      <c r="C24" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
-      </c>
-      <c r="D24" t="str">
-        <v>1250</v>
-      </c>
-      <c r="E24" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F24" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G24" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="str">
-        <v>Knowlarity Communications Private Limited</v>
-      </c>
-      <c r="B25" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
-      </c>
-      <c r="C25" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
-      </c>
-      <c r="D25" t="str">
-        <v>1400</v>
-      </c>
-      <c r="E25" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F25" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G25" t="str">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="str">
-        <v>Knowlarity Communications Private Limited</v>
-      </c>
-      <c r="B26" t="str">
-        <v>AWL-KNOWLARITY001</v>
-      </c>
-      <c r="C26" t="str">
-        <v>AWL-KNOWLARITY001</v>
-      </c>
-      <c r="D26" t="str">
-        <v>1250</v>
-      </c>
-      <c r="E26" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F26" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G26" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="str">
-        <v>MM Computer Communication</v>
-      </c>
-      <c r="B27" t="str">
-        <v>ILOGMM001</v>
-      </c>
-      <c r="C27" t="str">
-        <v>ILOGMM001-CORP-1</v>
-      </c>
-      <c r="D27" t="str">
-        <v>150000</v>
-      </c>
-      <c r="E27" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F27" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G27" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="str">
-        <v>Mukand Infotel Private Limited</v>
-      </c>
-      <c r="B28" t="str">
-        <v>N7523</v>
-      </c>
-      <c r="C28" t="str">
-        <v>ILOGMNET01</v>
-      </c>
-      <c r="D28" t="str">
-        <v>2360</v>
-      </c>
-      <c r="E28" t="str">
-        <v>AWL - Guwahati Warehouse</v>
-      </c>
-      <c r="F28" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G28" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="str">
-        <v>NR Data Services Networking</v>
-      </c>
-      <c r="B29" t="str">
-        <v>ILOGNR001</v>
-      </c>
-      <c r="C29" t="str">
-        <v>ILOGNR001-GGN-1</v>
-      </c>
-      <c r="D29" t="str">
-        <v>10000</v>
-      </c>
-      <c r="E29" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
-      </c>
-      <c r="F29" t="str">
-        <v>Quarterly</v>
-      </c>
-      <c r="G29" t="str">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="str">
-        <v>NR Data Services Networking</v>
-      </c>
-      <c r="B30" t="str">
-        <v>ILOGNR001</v>
-      </c>
-      <c r="C30" t="str">
-        <v>ILOG001-TOUREN</v>
-      </c>
-      <c r="D30" t="str">
-        <v>7500</v>
-      </c>
-      <c r="E30" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
-      </c>
-      <c r="F30" t="str">
-        <v>Quarterly</v>
-      </c>
-      <c r="G30" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Sify Technologies Limited</v>
-      </c>
-      <c r="B31" t="str">
-        <v>413494</v>
-      </c>
-      <c r="C31" t="str">
-        <v>413494-10-BOM-1</v>
-      </c>
-      <c r="D31" t="str">
-        <v>9578</v>
-      </c>
-      <c r="E31" t="str">
-        <v>AWL - Mumbai Warehouse</v>
-      </c>
-      <c r="F31" t="str">
-        <v>Quarterly</v>
-      </c>
-      <c r="G31" t="str">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>Vodafone Idea Limited</v>
-      </c>
-      <c r="B32" t="str">
-        <v>13838424</v>
-      </c>
-      <c r="C32" t="str">
-        <v>9899057096-Rahul-1</v>
-      </c>
-      <c r="D32" t="str">
-        <v>1300</v>
-      </c>
-      <c r="E32" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F32" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G32" t="str">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>Vodafone Idea Limited</v>
-      </c>
-      <c r="B33" t="str">
-        <v>13871257</v>
-      </c>
-      <c r="C33" t="str">
-        <v>9899359989-RRP-1</v>
-      </c>
-      <c r="D33" t="str">
-        <v>1000</v>
-      </c>
-      <c r="E33" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F33" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G33" t="str">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>Amazon</v>
-      </c>
-      <c r="B34" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
-      </c>
-      <c r="C34" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
-      </c>
-      <c r="D34" t="str">
-        <v>999</v>
-      </c>
-      <c r="E34" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G34" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>GODADDY</v>
-      </c>
-      <c r="B35" t="str">
-        <v>123960105</v>
-      </c>
-      <c r="C35" t="str">
-        <v>ILOGGODADDY001</v>
-      </c>
-      <c r="D35" t="str">
-        <v>10764</v>
-      </c>
-      <c r="E35" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F35" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G35" t="str">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Kikai Technologies Private Limited</v>
-      </c>
-      <c r="B36" t="str">
-        <v>DBOXKIKAI001-SEO</v>
-      </c>
-      <c r="C36" t="str">
-        <v>DBOXKIKAI001-SEO</v>
-      </c>
-      <c r="D36" t="str">
-        <v>20000</v>
-      </c>
-      <c r="E36" t="str">
-        <v/>
-      </c>
-      <c r="F36" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G36" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
-      </c>
-      <c r="B37" t="str">
-        <v>NXT001</v>
-      </c>
-      <c r="C37" t="str">
-        <v>ILOGNXT001</v>
-      </c>
-      <c r="D37" t="str">
-        <v>55000</v>
-      </c>
-      <c r="E37" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F37" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G37" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Yotta Infrastructure Solutions LLP</v>
-      </c>
-      <c r="B38" t="str">
-        <v>13348</v>
-      </c>
-      <c r="C38" t="str">
-        <v>ILOGYOTTA001</v>
-      </c>
-      <c r="D38" t="str">
-        <v>1500</v>
-      </c>
-      <c r="E38" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G38" t="str">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G38"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/recurring.xlsx
+++ b/recurring.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G23"/>
+  <dimension ref="A1:G25"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -430,13 +430,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B2" t="str">
-        <v>7015898062</v>
+        <v>1148795355</v>
       </c>
       <c r="C2" t="str">
-        <v>01244279462-CORP-1</v>
+        <v>ILOGDATA001-CORP-1</v>
       </c>
       <c r="D2" t="str">
-        <v>250</v>
+        <v>36000</v>
       </c>
       <c r="E2" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -445,7 +445,7 @@
         <v>Monthly</v>
       </c>
       <c r="G2" t="str">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -453,22 +453,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B3" t="str">
-        <v>7015898060</v>
+        <v>19682805</v>
       </c>
       <c r="C3" t="str">
-        <v>01244279460-CORP-1</v>
+        <v>19682805</v>
       </c>
       <c r="D3" t="str">
-        <v>250</v>
+        <v>6666</v>
       </c>
       <c r="E3" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F3" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G3" t="str">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -476,13 +476,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B4" t="str">
-        <v>1148795355</v>
+        <v>102-100038465</v>
       </c>
       <c r="C4" t="str">
-        <v>ILOGDATA001-CORP-1</v>
+        <v>9810205476-CORP-1</v>
       </c>
       <c r="D4" t="str">
-        <v>36000</v>
+        <v>749</v>
       </c>
       <c r="E4" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -491,7 +491,7 @@
         <v>Monthly</v>
       </c>
       <c r="G4" t="str">
-        <v>3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5">
@@ -499,59 +499,59 @@
         <v>AIRTEL</v>
       </c>
       <c r="B5" t="str">
-        <v>7038063008</v>
+        <v>19682805</v>
       </c>
       <c r="C5" t="str">
-        <v>956298-PRI-CORP-1</v>
+        <v>ILOGARAVALI001</v>
       </c>
       <c r="D5" t="str">
-        <v>12000</v>
+        <v>5417</v>
       </c>
       <c r="E5" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F5" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G5" t="str">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>AIRTEL</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B6" t="str">
-        <v>7010625278</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C6" t="str">
-        <v>124451125048_DSL-CORP-1</v>
+        <v>A12GGN2010144-GGN2-3</v>
       </c>
       <c r="D6" t="str">
-        <v>499</v>
+        <v>5000</v>
       </c>
       <c r="E6" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F6" t="str">
         <v>Monthly</v>
       </c>
       <c r="G6" t="str">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>AIRTEL</v>
+        <v>Microsoft Corporation (India) Private Limited</v>
       </c>
       <c r="B7" t="str">
-        <v>102-100038465</v>
+        <v>8004402038</v>
       </c>
       <c r="C7" t="str">
-        <v>9810205476-CORP-1</v>
+        <v>8004402038-AZURE</v>
       </c>
       <c r="D7" t="str">
-        <v>749</v>
+        <v>53000</v>
       </c>
       <c r="E7" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -560,99 +560,99 @@
         <v>Monthly</v>
       </c>
       <c r="G7" t="str">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AIRTEL</v>
+        <v>Dream Net Services</v>
       </c>
       <c r="B8" t="str">
-        <v>19682805</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="C8" t="str">
-        <v>ILOGARAVALI001</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="D8" t="str">
-        <v>5417</v>
+        <v>2916</v>
       </c>
       <c r="E8" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Bhiwandi Warehouse</v>
       </c>
       <c r="F8" t="str">
-        <v>Quarterly</v>
+        <v>Annually</v>
       </c>
       <c r="G8" t="str">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Microsoft Corporation (India) Private Limited</v>
+        <v>Elxire IT Services Private Limited</v>
       </c>
       <c r="B9" t="str">
-        <v>8004402038</v>
+        <v>ILOGELX001</v>
       </c>
       <c r="C9" t="str">
-        <v>8004402038-AZURE</v>
+        <v>ILOGELX001-GGN2-1</v>
       </c>
       <c r="D9" t="str">
-        <v>53000</v>
+        <v>5417</v>
       </c>
       <c r="E9" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F9" t="str">
         <v>Monthly</v>
       </c>
       <c r="G9" t="str">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Dream Net Services</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B10" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C10" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>A11NOR010052-DEL3-1</v>
       </c>
       <c r="D10" t="str">
-        <v>2916</v>
+        <v>5000</v>
       </c>
       <c r="E10" t="str">
-        <v>AWL - Bhiwandi Warehouse</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F10" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G10" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Elxire IT Services Private Limited</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B11" t="str">
-        <v>ILOGELX001</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="C11" t="str">
-        <v>ILOGELX001-GGN2-1</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="D11" t="str">
-        <v>5417</v>
+        <v>1250</v>
       </c>
       <c r="E11" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F11" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G11" t="str">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
@@ -660,13 +660,13 @@
         <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B12" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="C12" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="D12" t="str">
-        <v>1250</v>
+        <v>1400</v>
       </c>
       <c r="E12" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -683,13 +683,13 @@
         <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B13" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="C13" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="D13" t="str">
-        <v>1400</v>
+        <v>1250</v>
       </c>
       <c r="E13" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -698,99 +698,99 @@
         <v>Annually</v>
       </c>
       <c r="G13" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>MM Computer Communication</v>
       </c>
       <c r="B14" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>ILOGMM001</v>
       </c>
       <c r="C14" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>ILOGMM001-CORP-1</v>
       </c>
       <c r="D14" t="str">
-        <v>1250</v>
+        <v>150000</v>
       </c>
       <c r="E14" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F14" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G14" t="str">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>MM Computer Communication</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B15" t="str">
-        <v>ILOGMM001</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="C15" t="str">
-        <v>ILOGMM001-CORP-1</v>
+        <v>ILOG001-TOUREN</v>
       </c>
       <c r="D15" t="str">
-        <v>150000</v>
+        <v>7500</v>
       </c>
       <c r="E15" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F15" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G15" t="str">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>NR Data Services Networking</v>
+        <v>Sify Technologies Limited</v>
       </c>
       <c r="B16" t="str">
-        <v>ILOGNR001</v>
+        <v>413494</v>
       </c>
       <c r="C16" t="str">
-        <v>ILOG001-TOUREN</v>
+        <v>413494-10-BOM-1</v>
       </c>
       <c r="D16" t="str">
-        <v>7500</v>
+        <v>9578</v>
       </c>
       <c r="E16" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Mumbai Warehouse</v>
       </c>
       <c r="F16" t="str">
         <v>Quarterly</v>
       </c>
       <c r="G16" t="str">
-        <v>4</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Sify Technologies Limited</v>
+        <v>Shyam Spectra Private Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>413494</v>
+        <v>9082431</v>
       </c>
       <c r="C17" t="str">
-        <v>413494-10-BOM-1</v>
+        <v>AWLSPECTRA001</v>
       </c>
       <c r="D17" t="str">
-        <v>9578</v>
+        <v>10834</v>
       </c>
       <c r="E17" t="str">
-        <v>AWL - Mumbai Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F17" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G17" t="str">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
     <row r="18">
@@ -798,13 +798,13 @@
         <v>Vodafone Idea Limited</v>
       </c>
       <c r="B18" t="str">
-        <v>13871257</v>
+        <v>165169033</v>
       </c>
       <c r="C18" t="str">
-        <v>9899359989-RRP-1</v>
+        <v>9899053605-Ishan</v>
       </c>
       <c r="D18" t="str">
-        <v>1000</v>
+        <v>399</v>
       </c>
       <c r="E18" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -813,73 +813,73 @@
         <v>Monthly</v>
       </c>
       <c r="G18" t="str">
-        <v>24</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Amazon</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
+        <v>13838424</v>
       </c>
       <c r="C19" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
+        <v>9899057096-Rahul-1</v>
       </c>
       <c r="D19" t="str">
-        <v>999</v>
+        <v>1300</v>
       </c>
       <c r="E19" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F19" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G19" t="str">
-        <v>1</v>
+        <v>28</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>GODADDY</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B20" t="str">
-        <v>123960105</v>
+        <v>13871257</v>
       </c>
       <c r="C20" t="str">
-        <v>ILOGGODADDY001</v>
+        <v>9899359989-RRP-1</v>
       </c>
       <c r="D20" t="str">
-        <v>10764</v>
+        <v>1000</v>
       </c>
       <c r="E20" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F20" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G20" t="str">
-        <v>31</v>
+        <v>24</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>Amazon</v>
       </c>
       <c r="B21" t="str">
-        <v>DBOXKIKAI001-SEO</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="C21" t="str">
-        <v>DBOXKIKAI001-SEO</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="D21" t="str">
-        <v>20000</v>
+        <v>999</v>
       </c>
       <c r="E21" t="str">
-        <v/>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F21" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G21" t="str">
         <v>1</v>
@@ -887,53 +887,99 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
+        <v>GODADDY</v>
       </c>
       <c r="B22" t="str">
-        <v>NXT001</v>
+        <v>123960105</v>
       </c>
       <c r="C22" t="str">
-        <v>ILOGNXT001</v>
+        <v>ILOGGODADDY001</v>
       </c>
       <c r="D22" t="str">
-        <v>55000</v>
+        <v>10764</v>
       </c>
       <c r="E22" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F22" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G22" t="str">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B23" t="str">
+        <v>DBOXKIKAI001-SEO</v>
+      </c>
+      <c r="C23" t="str">
+        <v>DBOXKIKAI001-SEO</v>
+      </c>
+      <c r="D23" t="str">
+        <v>20000</v>
+      </c>
+      <c r="E23" t="str">
+        <v/>
+      </c>
+      <c r="F23" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G23" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="str">
+        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
+      </c>
+      <c r="B24" t="str">
+        <v>NXT001</v>
+      </c>
+      <c r="C24" t="str">
+        <v>ILOGNXT001</v>
+      </c>
+      <c r="D24" t="str">
+        <v>55000</v>
+      </c>
+      <c r="E24" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G24" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="str">
         <v>Yotta Infrastructure Solutions LLP</v>
       </c>
-      <c r="B23" t="str">
+      <c r="B25" t="str">
         <v>13348</v>
       </c>
-      <c r="C23" t="str">
+      <c r="C25" t="str">
         <v>ILOGYOTTA001</v>
       </c>
-      <c r="D23" t="str">
+      <c r="D25" t="str">
         <v>1500</v>
       </c>
-      <c r="E23" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F23" t="str">
+      <c r="E25" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F25" t="str">
         <v>Annually</v>
       </c>
-      <c r="G23" t="str">
+      <c r="G25" t="str">
         <v>31</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G23"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G25"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/recurring.xlsx
+++ b/recurring.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,39 +427,39 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AIRTEL</v>
+        <v>AAA Rental LLP</v>
       </c>
       <c r="B2" t="str">
-        <v>19682805</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="C2" t="str">
-        <v>6721669-AHM-1</v>
+        <v>ILOGAAA</v>
       </c>
       <c r="D2" t="str">
-        <v>4166</v>
+        <v>21000</v>
       </c>
       <c r="E2" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F2" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G2" t="str">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>AIRTEL</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B3" t="str">
-        <v>1148795355</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="C3" t="str">
-        <v>ILOGDATA001-CORP-1</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="D3" t="str">
-        <v>36000</v>
+        <v>11000</v>
       </c>
       <c r="E3" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -468,7 +468,7 @@
         <v>Monthly</v>
       </c>
       <c r="G3" t="str">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -476,22 +476,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B4" t="str">
-        <v>1307035590</v>
+        <v>19682805</v>
       </c>
       <c r="C4" t="str">
-        <v>ILOGMOB001-CORP-1</v>
+        <v>6721669-AHM-1</v>
       </c>
       <c r="D4" t="str">
-        <v>11000</v>
+        <v>4166</v>
       </c>
       <c r="E4" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Ahmedabad Warehouse</v>
       </c>
       <c r="F4" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G4" t="str">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
@@ -499,22 +499,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B5" t="str">
-        <v>19682805</v>
+        <v>7015898062</v>
       </c>
       <c r="C5" t="str">
-        <v>19682805</v>
+        <v>01244279462-CORP-1</v>
       </c>
       <c r="D5" t="str">
-        <v>6666</v>
+        <v>250</v>
       </c>
       <c r="E5" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F5" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G5" t="str">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
@@ -522,13 +522,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B6" t="str">
-        <v>7023500364</v>
+        <v>7015898060</v>
       </c>
       <c r="C6" t="str">
-        <v>012427961015_dsl_CORP-1</v>
+        <v>01244279460-CORP-1</v>
       </c>
       <c r="D6" t="str">
-        <v>1098</v>
+        <v>250</v>
       </c>
       <c r="E6" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -537,7 +537,7 @@
         <v>Monthly</v>
       </c>
       <c r="G6" t="str">
-        <v>3</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
@@ -545,22 +545,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B7" t="str">
-        <v>19682805</v>
+        <v>1148795355</v>
       </c>
       <c r="C7" t="str">
-        <v>19682805-DEL-1</v>
+        <v>ILOGDATA001-CORP-1</v>
       </c>
       <c r="D7" t="str">
-        <v>5416</v>
+        <v>36000</v>
       </c>
       <c r="E7" t="str">
-        <v>AWL - Delhi GTK Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F7" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G7" t="str">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -568,22 +568,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B8" t="str">
-        <v>19682805</v>
+        <v>7038063008</v>
       </c>
       <c r="C8" t="str">
-        <v>19682805-GGN-1</v>
+        <v>956298-PRI-CORP-1</v>
       </c>
       <c r="D8" t="str">
-        <v>6666</v>
+        <v>12000</v>
       </c>
       <c r="E8" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F8" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G8" t="str">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9">
@@ -594,13 +594,13 @@
         <v>19682805</v>
       </c>
       <c r="C9" t="str">
-        <v>19682805-GGN2-1</v>
+        <v>19682805</v>
       </c>
       <c r="D9" t="str">
         <v>6666</v>
       </c>
       <c r="E9" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F9" t="str">
         <v>Quarterly</v>
@@ -614,13 +614,13 @@
         <v>AIRTEL</v>
       </c>
       <c r="B10" t="str">
-        <v>102-100038465</v>
+        <v>7010625278</v>
       </c>
       <c r="C10" t="str">
-        <v>9810205476-CORP-1</v>
+        <v>124451125048_DSL-CORP-1</v>
       </c>
       <c r="D10" t="str">
-        <v>749</v>
+        <v>499</v>
       </c>
       <c r="E10" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -629,7 +629,7 @@
         <v>Monthly</v>
       </c>
       <c r="G10" t="str">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -640,13 +640,13 @@
         <v>19682805</v>
       </c>
       <c r="C11" t="str">
-        <v>ILOGARAVALI001</v>
+        <v>19682805-DEL-1</v>
       </c>
       <c r="D11" t="str">
-        <v>5417</v>
+        <v>5416</v>
       </c>
       <c r="E11" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F11" t="str">
         <v>Quarterly</v>
@@ -660,16 +660,16 @@
         <v>AIRTEL</v>
       </c>
       <c r="B12" t="str">
-        <v>31-40011108</v>
+        <v>19682805</v>
       </c>
       <c r="C12" t="str">
-        <v>21-100031981-BLR</v>
+        <v>19682805-GGN-1</v>
       </c>
       <c r="D12" t="str">
-        <v>5000</v>
+        <v>6666</v>
       </c>
       <c r="E12" t="str">
-        <v>AWL - Bangalore Warehouse</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F12" t="str">
         <v>Quarterly</v>
@@ -680,39 +680,39 @@
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Alok Computers</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B13" t="str">
-        <v>ILOGALOK001</v>
+        <v>19682805</v>
       </c>
       <c r="C13" t="str">
-        <v>ILOGALOK001-AHM-1</v>
+        <v>19682805-GGN2-1</v>
       </c>
       <c r="D13" t="str">
-        <v>1500</v>
+        <v>6666</v>
       </c>
       <c r="E13" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F13" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G13" t="str">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>Microsoft Corporation (India) Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B14" t="str">
-        <v>8004402038</v>
+        <v>102-100038465</v>
       </c>
       <c r="C14" t="str">
-        <v>8004402038-AZURE</v>
+        <v>9810205476-CORP-1</v>
       </c>
       <c r="D14" t="str">
-        <v>53000</v>
+        <v>749</v>
       </c>
       <c r="E14" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -721,67 +721,67 @@
         <v>Monthly</v>
       </c>
       <c r="G14" t="str">
-        <v>17</v>
+        <v>21</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>BS Services</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B15" t="str">
-        <v>ILOGBS001</v>
+        <v>19682805</v>
       </c>
       <c r="C15" t="str">
-        <v>ILOGBS001-CORP-1</v>
+        <v>ILOGARAVALI001</v>
       </c>
       <c r="D15" t="str">
-        <v>58750</v>
+        <v>5417</v>
       </c>
       <c r="E15" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F15" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G15" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Dream Net Services</v>
+        <v>Alok Computers</v>
       </c>
       <c r="B16" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>ILOGALOK001</v>
       </c>
       <c r="C16" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>ILOGALOK001-AHM-1</v>
       </c>
       <c r="D16" t="str">
-        <v>2916</v>
+        <v>1500</v>
       </c>
       <c r="E16" t="str">
-        <v>AWL - Bhiwandi Warehouse</v>
+        <v>AWL - Ahmedabad Warehouse</v>
       </c>
       <c r="F16" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G16" t="str">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Elxire IT Services Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>ILOGELX001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C17" t="str">
-        <v>ILOGELX001-GGN2-1</v>
+        <v>A12GGN2010144-GGN2-3</v>
       </c>
       <c r="D17" t="str">
-        <v>5417</v>
+        <v>5000</v>
       </c>
       <c r="E17" t="str">
         <v>AWL - Gurgaon Bhondsi Warehouse</v>
@@ -790,76 +790,76 @@
         <v>Monthly</v>
       </c>
       <c r="G17" t="str">
-        <v>15</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Fretron Private Limited</v>
+        <v>Dream Net Services</v>
       </c>
       <c r="B18" t="str">
-        <v>ILOGFRETRON</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="C18" t="str">
-        <v>ILOGFRETRON</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="D18" t="str">
-        <v>16000</v>
+        <v>2916</v>
       </c>
       <c r="E18" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Bhiwandi Warehouse</v>
       </c>
       <c r="F18" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G18" t="str">
-        <v>31</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Giga Network Communications</v>
+        <v>Elxire IT Services Private Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>ILOGGIGA001</v>
+        <v>ILOGELX001</v>
       </c>
       <c r="C19" t="str">
-        <v>GIGA-HYD-1</v>
+        <v>ILOGELX001-GGN2-1</v>
       </c>
       <c r="D19" t="str">
-        <v>1650</v>
+        <v>5417</v>
       </c>
       <c r="E19" t="str">
-        <v>AWL - Hyderabad Warehouse</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F19" t="str">
-        <v>6 Months</v>
+        <v>Monthly</v>
       </c>
       <c r="G19" t="str">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>Giga Network Communications</v>
       </c>
       <c r="B20" t="str">
-        <v>01E9EF-56197C-C5A763</v>
+        <v>ILOGGIGA001</v>
       </c>
       <c r="C20" t="str">
-        <v>ILOG-GOOGLE-CLOUD</v>
+        <v>GIGA-HYD-1</v>
       </c>
       <c r="D20" t="str">
-        <v>17000</v>
+        <v>1650</v>
       </c>
       <c r="E20" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Hyderabad Warehouse</v>
       </c>
       <c r="F20" t="str">
-        <v>Monthly</v>
+        <v>6 Months</v>
       </c>
       <c r="G20" t="str">
-        <v>31</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -867,13 +867,13 @@
         <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B21" t="str">
-        <v>1226-7792-2898</v>
+        <v>01E9EF-56197C-C5A763</v>
       </c>
       <c r="C21" t="str">
-        <v>ILOGGOOGEPX01</v>
+        <v>ILOG-GOOGLE-CLOUD</v>
       </c>
       <c r="D21" t="str">
-        <v>1800</v>
+        <v>17000</v>
       </c>
       <c r="E21" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -887,16 +887,16 @@
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>JB Computers</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B22" t="str">
-        <v>ILOGJB001</v>
+        <v>1226-7792-2898</v>
       </c>
       <c r="C22" t="str">
-        <v>ILOGJB001-CORP-1</v>
+        <v>ILOGGOOGEPX01</v>
       </c>
       <c r="D22" t="str">
-        <v>27000</v>
+        <v>1800</v>
       </c>
       <c r="E22" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -905,27 +905,27 @@
         <v>Monthly</v>
       </c>
       <c r="G22" t="str">
-        <v>7</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B23" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C23" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>A11NOR010052-DEL3-1</v>
       </c>
       <c r="D23" t="str">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="E23" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F23" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G23" t="str">
         <v>1</v>
@@ -933,48 +933,48 @@
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>JB Computers</v>
       </c>
       <c r="B24" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>ILOGJB001</v>
       </c>
       <c r="C24" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>ILOGJB001-CORP-1</v>
       </c>
       <c r="D24" t="str">
-        <v>1250</v>
+        <v>27000</v>
       </c>
       <c r="E24" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F24" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G24" t="str">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>Hirezone Systems Private Limited</v>
       </c>
       <c r="B25" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>ILOGHIREZONE-001</v>
       </c>
       <c r="C25" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>ILOGHIREZONE001-CCU</v>
       </c>
       <c r="D25" t="str">
-        <v>1400</v>
+        <v>900</v>
       </c>
       <c r="E25" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Kolkata Warehouse</v>
       </c>
       <c r="F25" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G25" t="str">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26">
@@ -982,10 +982,10 @@
         <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B26" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>ANYSPAZE-KNOWLARITY001</v>
       </c>
       <c r="C26" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>ANYSPAZE-KNOWLARITY001</v>
       </c>
       <c r="D26" t="str">
         <v>1250</v>
@@ -1002,229 +1002,229 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>MM Computer Communication</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B27" t="str">
-        <v>ILOGMM001</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="C27" t="str">
-        <v>ILOGMM001-CORP-1</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="D27" t="str">
-        <v>150000</v>
+        <v>1250</v>
       </c>
       <c r="E27" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F27" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G27" t="str">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Mukand Infotel Private Limited</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B28" t="str">
-        <v>N7523</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="C28" t="str">
-        <v>ILOGMNET01</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="D28" t="str">
-        <v>2360</v>
+        <v>1400</v>
       </c>
       <c r="E28" t="str">
-        <v>AWL - Guwahati Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F28" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G28" t="str">
-        <v>11</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>NR Data Services Networking</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B29" t="str">
-        <v>ILOGNR001</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="C29" t="str">
-        <v>ILOGNR001-GGN-1</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="D29" t="str">
-        <v>10000</v>
+        <v>1250</v>
       </c>
       <c r="E29" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F29" t="str">
-        <v>Quarterly</v>
+        <v>Annually</v>
       </c>
       <c r="G29" t="str">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>NR Data Services Networking</v>
+        <v>MM Computer Communication</v>
       </c>
       <c r="B30" t="str">
-        <v>ILOGNR001</v>
+        <v>ILOGMM001</v>
       </c>
       <c r="C30" t="str">
-        <v>ILOG001-TOUREN</v>
+        <v>ILOGMM001-CORP-1</v>
       </c>
       <c r="D30" t="str">
-        <v>7500</v>
+        <v>150000</v>
       </c>
       <c r="E30" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F30" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G30" t="str">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>Scorpio Imaging System</v>
+        <v>Mukand Infotel Private Limited</v>
       </c>
       <c r="B31" t="str">
-        <v>ILOGSCO001</v>
+        <v>N7523</v>
       </c>
       <c r="C31" t="str">
-        <v>ILOGSCOR001-MAA-1</v>
+        <v>ILOGMNET01</v>
       </c>
       <c r="D31" t="str">
-        <v>2500</v>
+        <v>2360</v>
       </c>
       <c r="E31" t="str">
-        <v>AWL - Chennai Warehouse</v>
+        <v>AWL - Guwahati Warehouse</v>
       </c>
       <c r="F31" t="str">
         <v>Monthly</v>
       </c>
       <c r="G31" t="str">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>Scorpio Imaging System</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B32" t="str">
-        <v>ILOGSCO001</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="C32" t="str">
-        <v>ILOGSCOR001-PUNE001</v>
+        <v>ILOGNR001-GGN-1</v>
       </c>
       <c r="D32" t="str">
-        <v>3000</v>
+        <v>10000</v>
       </c>
       <c r="E32" t="str">
-        <v>AWL - Pune Warehouse</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F32" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G32" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>Sify Technologies Limited</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B33" t="str">
-        <v>413494</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="C33" t="str">
-        <v>413494-10-BOM-1</v>
+        <v>ILOG001-TOUREN</v>
       </c>
       <c r="D33" t="str">
-        <v>9578</v>
+        <v>7500</v>
       </c>
       <c r="E33" t="str">
-        <v>AWL - Mumbai Warehouse</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F33" t="str">
         <v>Quarterly</v>
       </c>
       <c r="G33" t="str">
-        <v>12</v>
+        <v>4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>NSS System Services</v>
       </c>
       <c r="B34" t="str">
-        <v>13838424</v>
+        <v>ILOGNSS001</v>
       </c>
       <c r="C34" t="str">
-        <v>9899057096-Rahul-1</v>
+        <v>ILOGNSS001-LKO-1</v>
       </c>
       <c r="D34" t="str">
-        <v>1300</v>
+        <v>4000</v>
       </c>
       <c r="E34" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Lucknow Warehouse</v>
       </c>
       <c r="F34" t="str">
         <v>Monthly</v>
       </c>
       <c r="G34" t="str">
-        <v>28</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B35" t="str">
-        <v>13871257</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="C35" t="str">
-        <v>9899359989-RRP-1</v>
+        <v>ILOGSCOR001-MAA-1</v>
       </c>
       <c r="D35" t="str">
-        <v>1000</v>
+        <v>2500</v>
       </c>
       <c r="E35" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Chennai Warehouse</v>
       </c>
       <c r="F35" t="str">
         <v>Monthly</v>
       </c>
       <c r="G35" t="str">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>Amazon</v>
+        <v>Scorpio Imaging System</v>
       </c>
       <c r="B36" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
+        <v>ILOGSCO001</v>
       </c>
       <c r="C36" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
+        <v>ILOGSCOR001-PUNE001</v>
       </c>
       <c r="D36" t="str">
-        <v>999</v>
+        <v>3000</v>
       </c>
       <c r="E36" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Pune Warehouse</v>
       </c>
       <c r="F36" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G36" t="str">
         <v>1</v>
@@ -1232,39 +1232,39 @@
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>GODADDY</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B37" t="str">
-        <v>123960105</v>
+        <v>165169033</v>
       </c>
       <c r="C37" t="str">
-        <v>ILOGGODADDY001</v>
+        <v>9899053605-Ishan</v>
       </c>
       <c r="D37" t="str">
-        <v>10764</v>
+        <v>399</v>
       </c>
       <c r="E37" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F37" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G37" t="str">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B38" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>13871257</v>
       </c>
       <c r="C38" t="str">
-        <v>ILOGKIKAI001-SEO</v>
+        <v>9899359989-RRP-1</v>
       </c>
       <c r="D38" t="str">
-        <v>190000</v>
+        <v>1000</v>
       </c>
       <c r="E38" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -1273,27 +1273,27 @@
         <v>Monthly</v>
       </c>
       <c r="G38" t="str">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>Amazon</v>
       </c>
       <c r="B39" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="C39" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="D39" t="str">
-        <v>110000</v>
+        <v>999</v>
       </c>
       <c r="E39" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F39" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G39" t="str">
         <v>1</v>
@@ -1301,39 +1301,39 @@
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>GODADDY</v>
       </c>
       <c r="B40" t="str">
-        <v>DBOXKIKAI001-SEO</v>
+        <v>123960105</v>
       </c>
       <c r="C40" t="str">
-        <v>DBOXKIKAI001-SEO</v>
+        <v>ILOGGODADDY001</v>
       </c>
       <c r="D40" t="str">
-        <v>20000</v>
+        <v>10764</v>
       </c>
       <c r="E40" t="str">
-        <v/>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F40" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G40" t="str">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B41" t="str">
-        <v>NXT001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="C41" t="str">
-        <v>ILOGNXT001</v>
+        <v>ILOGKIKAI001-SEO</v>
       </c>
       <c r="D41" t="str">
-        <v>55000</v>
+        <v>190000</v>
       </c>
       <c r="E41" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -1347,30 +1347,99 @@
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>Yotta Infrastructure Solutions LLP</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B42" t="str">
-        <v>13348</v>
+        <v>ILOGKIKAI001-OUTSOURCE</v>
       </c>
       <c r="C42" t="str">
-        <v>ILOGYOTTA001</v>
+        <v>ILOGKIKAI001-OUTSOURCE</v>
       </c>
       <c r="D42" t="str">
-        <v>1500</v>
+        <v>110000</v>
       </c>
       <c r="E42" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F42" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G42" t="str">
-        <v>31</v>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B43" t="str">
+        <v>DBOXKIKAI001-SEO</v>
+      </c>
+      <c r="C43" t="str">
+        <v>DBOXKIKAI001-SEO</v>
+      </c>
+      <c r="D43" t="str">
+        <v>20000</v>
+      </c>
+      <c r="E43" t="str">
+        <v/>
+      </c>
+      <c r="F43" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G43" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
+      </c>
+      <c r="B44" t="str">
+        <v>NXT001</v>
+      </c>
+      <c r="C44" t="str">
+        <v>ILOGNXT001</v>
+      </c>
+      <c r="D44" t="str">
+        <v>55000</v>
+      </c>
+      <c r="E44" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G44" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>AIRTEL</v>
+      </c>
+      <c r="B45" t="str">
+        <v>19682805</v>
+      </c>
+      <c r="C45" t="str">
+        <v>ILOGAIR001-HYD</v>
+      </c>
+      <c r="D45" t="str">
+        <v>4166</v>
+      </c>
+      <c r="E45" t="str">
+        <v>HYD-AWL</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Quarterly</v>
+      </c>
+      <c r="G45" t="str">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G42"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G45"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/recurring.xlsx
+++ b/recurring.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G45"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,48 +427,48 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AAA Rental LLP</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B2" t="str">
-        <v>ILOGAAA</v>
+        <v>19682805</v>
       </c>
       <c r="C2" t="str">
-        <v>ILOGAAA</v>
+        <v>6721669-AHM-1</v>
       </c>
       <c r="D2" t="str">
-        <v>21000</v>
+        <v>4166</v>
       </c>
       <c r="E2" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Ahmedabad Warehouse</v>
       </c>
       <c r="F2" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G2" t="str">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>Advaitha Technogies</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B3" t="str">
-        <v>ILOGADV001</v>
+        <v>19682805</v>
       </c>
       <c r="C3" t="str">
-        <v>ILOGADV001</v>
+        <v>19682805</v>
       </c>
       <c r="D3" t="str">
-        <v>11000</v>
+        <v>6666</v>
       </c>
       <c r="E3" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F3" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G3" t="str">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
@@ -479,13 +479,13 @@
         <v>19682805</v>
       </c>
       <c r="C4" t="str">
-        <v>6721669-AHM-1</v>
+        <v>19682805-DEL-1</v>
       </c>
       <c r="D4" t="str">
-        <v>4166</v>
+        <v>5416</v>
       </c>
       <c r="E4" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F4" t="str">
         <v>Quarterly</v>
@@ -499,22 +499,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B5" t="str">
-        <v>7015898062</v>
+        <v>19682805</v>
       </c>
       <c r="C5" t="str">
-        <v>01244279462-CORP-1</v>
+        <v>19682805-GGN-1</v>
       </c>
       <c r="D5" t="str">
-        <v>250</v>
+        <v>6666</v>
       </c>
       <c r="E5" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F5" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G5" t="str">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
@@ -522,22 +522,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B6" t="str">
-        <v>7015898060</v>
+        <v>19682805</v>
       </c>
       <c r="C6" t="str">
-        <v>01244279460-CORP-1</v>
+        <v>19682805-GGN2-1</v>
       </c>
       <c r="D6" t="str">
-        <v>250</v>
+        <v>6666</v>
       </c>
       <c r="E6" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F6" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G6" t="str">
-        <v>27</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
@@ -545,358 +545,358 @@
         <v>AIRTEL</v>
       </c>
       <c r="B7" t="str">
-        <v>1148795355</v>
+        <v>19682805</v>
       </c>
       <c r="C7" t="str">
-        <v>ILOGDATA001-CORP-1</v>
+        <v>ILOGARAVALI001</v>
       </c>
       <c r="D7" t="str">
-        <v>36000</v>
+        <v>5417</v>
       </c>
       <c r="E7" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F7" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G7" t="str">
-        <v>3</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AIRTEL</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B8" t="str">
-        <v>7038063008</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C8" t="str">
-        <v>956298-PRI-CORP-1</v>
+        <v>A12GGN2010144-GGN2-3</v>
       </c>
       <c r="D8" t="str">
-        <v>12000</v>
+        <v>5000</v>
       </c>
       <c r="E8" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F8" t="str">
         <v>Monthly</v>
       </c>
       <c r="G8" t="str">
-        <v>18</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>AIRTEL</v>
+        <v>Dream Net Services</v>
       </c>
       <c r="B9" t="str">
-        <v>19682805</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="C9" t="str">
-        <v>19682805</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="D9" t="str">
-        <v>6666</v>
+        <v>2916</v>
       </c>
       <c r="E9" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Bhiwandi Warehouse</v>
       </c>
       <c r="F9" t="str">
-        <v>Quarterly</v>
+        <v>Annually</v>
       </c>
       <c r="G9" t="str">
-        <v>14</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>AIRTEL</v>
+        <v>Elxire IT Services Private Limited</v>
       </c>
       <c r="B10" t="str">
-        <v>7010625278</v>
+        <v>ILOGELX001</v>
       </c>
       <c r="C10" t="str">
-        <v>124451125048_DSL-CORP-1</v>
+        <v>ILOGELX001-GGN2-1</v>
       </c>
       <c r="D10" t="str">
-        <v>499</v>
+        <v>5417</v>
       </c>
       <c r="E10" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F10" t="str">
         <v>Monthly</v>
       </c>
       <c r="G10" t="str">
-        <v>9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>AIRTEL</v>
+        <v>Giga Network Communications</v>
       </c>
       <c r="B11" t="str">
-        <v>19682805</v>
+        <v>ILOGGIGA001</v>
       </c>
       <c r="C11" t="str">
-        <v>19682805-DEL-1</v>
+        <v>GIGA-HYD-1</v>
       </c>
       <c r="D11" t="str">
-        <v>5416</v>
+        <v>1650</v>
       </c>
       <c r="E11" t="str">
-        <v>AWL - Delhi GTK Warehouse</v>
+        <v>AWL - Hyderabad Warehouse</v>
       </c>
       <c r="F11" t="str">
-        <v>Quarterly</v>
+        <v>6 Months</v>
       </c>
       <c r="G11" t="str">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>AIRTEL</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B12" t="str">
-        <v>19682805</v>
+        <v>01E9EF-56197C-C5A763</v>
       </c>
       <c r="C12" t="str">
-        <v>19682805-GGN-1</v>
+        <v>ILOG-GOOGLE-CLOUD</v>
       </c>
       <c r="D12" t="str">
-        <v>6666</v>
+        <v>17000</v>
       </c>
       <c r="E12" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F12" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G12" t="str">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>AIRTEL</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B13" t="str">
-        <v>19682805</v>
+        <v>1226-7792-2898</v>
       </c>
       <c r="C13" t="str">
-        <v>19682805-GGN2-1</v>
+        <v>ILOGGOOGEPX01</v>
       </c>
       <c r="D13" t="str">
-        <v>6666</v>
+        <v>1800</v>
       </c>
       <c r="E13" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F13" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G13" t="str">
-        <v>14</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>AIRTEL</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B14" t="str">
-        <v>102-100038465</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C14" t="str">
-        <v>9810205476-CORP-1</v>
+        <v>A11NOR010052-DEL3-1</v>
       </c>
       <c r="D14" t="str">
-        <v>749</v>
+        <v>5000</v>
       </c>
       <c r="E14" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F14" t="str">
         <v>Monthly</v>
       </c>
       <c r="G14" t="str">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>AIRTEL</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B15" t="str">
-        <v>19682805</v>
+        <v>ANYSPAZE-KNOWLARITY001</v>
       </c>
       <c r="C15" t="str">
-        <v>ILOGARAVALI001</v>
+        <v>ANYSPAZE-KNOWLARITY001</v>
       </c>
       <c r="D15" t="str">
-        <v>5417</v>
+        <v>1250</v>
       </c>
       <c r="E15" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F15" t="str">
-        <v>Quarterly</v>
+        <v>Annually</v>
       </c>
       <c r="G15" t="str">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Alok Computers</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B16" t="str">
-        <v>ILOGALOK001</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="C16" t="str">
-        <v>ILOGALOK001-AHM-1</v>
+        <v>DOXBOX-KNOWLARITY001</v>
       </c>
       <c r="D16" t="str">
-        <v>1500</v>
+        <v>1250</v>
       </c>
       <c r="E16" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F16" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G16" t="str">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>ILOGAONE001</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="C17" t="str">
-        <v>A12GGN2010144-GGN2-3</v>
+        <v>EPRONTO-KNOWLARITY001</v>
       </c>
       <c r="D17" t="str">
-        <v>5000</v>
+        <v>1400</v>
       </c>
       <c r="E17" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F17" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G17" t="str">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Dream Net Services</v>
+        <v>Knowlarity Communications Private Limited</v>
       </c>
       <c r="B18" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="C18" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>AWL-KNOWLARITY001</v>
       </c>
       <c r="D18" t="str">
-        <v>2916</v>
+        <v>1250</v>
       </c>
       <c r="E18" t="str">
-        <v>AWL - Bhiwandi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F18" t="str">
         <v>Annually</v>
       </c>
       <c r="G18" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Elxire IT Services Private Limited</v>
+        <v>Mukand Infotel Private Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>ILOGELX001</v>
+        <v>N7523</v>
       </c>
       <c r="C19" t="str">
-        <v>ILOGELX001-GGN2-1</v>
+        <v>ILOGMNET01</v>
       </c>
       <c r="D19" t="str">
-        <v>5417</v>
+        <v>2360</v>
       </c>
       <c r="E19" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Guwahati Warehouse</v>
       </c>
       <c r="F19" t="str">
         <v>Monthly</v>
       </c>
       <c r="G19" t="str">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>Giga Network Communications</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B20" t="str">
-        <v>ILOGGIGA001</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="C20" t="str">
-        <v>GIGA-HYD-1</v>
+        <v>ILOGNR001-GGN-1</v>
       </c>
       <c r="D20" t="str">
-        <v>1650</v>
+        <v>10000</v>
       </c>
       <c r="E20" t="str">
-        <v>AWL - Hyderabad Warehouse</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F20" t="str">
-        <v>6 Months</v>
+        <v>Quarterly</v>
       </c>
       <c r="G20" t="str">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>NR Data Services Networking</v>
       </c>
       <c r="B21" t="str">
-        <v>01E9EF-56197C-C5A763</v>
+        <v>ILOGNR001</v>
       </c>
       <c r="C21" t="str">
-        <v>ILOG-GOOGLE-CLOUD</v>
+        <v>ILOG001-TOUREN</v>
       </c>
       <c r="D21" t="str">
-        <v>17000</v>
+        <v>7500</v>
       </c>
       <c r="E21" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F21" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G21" t="str">
-        <v>31</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>Shyam Spectra Private Limited</v>
       </c>
       <c r="B22" t="str">
-        <v>1226-7792-2898</v>
+        <v>9082431</v>
       </c>
       <c r="C22" t="str">
-        <v>ILOGGOOGEPX01</v>
+        <v>AWLSPECTRA001</v>
       </c>
       <c r="D22" t="str">
-        <v>1800</v>
+        <v>10834</v>
       </c>
       <c r="E22" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -905,44 +905,44 @@
         <v>Monthly</v>
       </c>
       <c r="G22" t="str">
-        <v>31</v>
+        <v>8</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B23" t="str">
-        <v>ILOGAONE001</v>
+        <v>13871257</v>
       </c>
       <c r="C23" t="str">
-        <v>A11NOR010052-DEL3-1</v>
+        <v>9899359989-RRP-1</v>
       </c>
       <c r="D23" t="str">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="E23" t="str">
-        <v>AWL - Delhi GTK Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F23" t="str">
         <v>Monthly</v>
       </c>
       <c r="G23" t="str">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>JB Computers</v>
+        <v>Vodafone Idea Limited</v>
       </c>
       <c r="B24" t="str">
-        <v>ILOGJB001</v>
+        <v>167933548</v>
       </c>
       <c r="C24" t="str">
-        <v>ILOGJB001-CORP-1</v>
+        <v>ILOGVODAIDEA01</v>
       </c>
       <c r="D24" t="str">
-        <v>27000</v>
+        <v>249</v>
       </c>
       <c r="E24" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -951,44 +951,44 @@
         <v>Monthly</v>
       </c>
       <c r="G24" t="str">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Hirezone Systems Private Limited</v>
+        <v>Amazon</v>
       </c>
       <c r="B25" t="str">
-        <v>ILOGHIREZONE-001</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="C25" t="str">
-        <v>ILOGHIREZONE001-CCU</v>
+        <v>AMZ-PRIME-RAHUL</v>
       </c>
       <c r="D25" t="str">
-        <v>900</v>
+        <v>999</v>
       </c>
       <c r="E25" t="str">
-        <v>AWL - Kolkata Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F25" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G25" t="str">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>GODADDY</v>
       </c>
       <c r="B26" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>123960105</v>
       </c>
       <c r="C26" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>ILOGGODADDY001</v>
       </c>
       <c r="D26" t="str">
-        <v>1250</v>
+        <v>10764</v>
       </c>
       <c r="E26" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -997,73 +997,73 @@
         <v>Annually</v>
       </c>
       <c r="G26" t="str">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B27" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>ILOGKIKAI001-OUTSOURCE</v>
       </c>
       <c r="C27" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>ILOGKIKAI001-OUTSOURCE</v>
       </c>
       <c r="D27" t="str">
-        <v>1250</v>
+        <v>110000</v>
       </c>
       <c r="E27" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F27" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G27" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>Kikai Technologies Private Limited</v>
       </c>
       <c r="B28" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>DBOXKIKAI001-SEO</v>
       </c>
       <c r="C28" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>DBOXKIKAI001-SEO</v>
       </c>
       <c r="D28" t="str">
-        <v>1400</v>
+        <v>20000</v>
       </c>
       <c r="E28" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v/>
       </c>
       <c r="F28" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G28" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
       </c>
       <c r="B29" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>NXT001</v>
       </c>
       <c r="C29" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>ILOGNXT001</v>
       </c>
       <c r="D29" t="str">
-        <v>1250</v>
+        <v>55000</v>
       </c>
       <c r="E29" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F29" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G29" t="str">
         <v>1</v>
@@ -1071,375 +1071,30 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>MM Computer Communication</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B30" t="str">
-        <v>ILOGMM001</v>
+        <v>19682805</v>
       </c>
       <c r="C30" t="str">
-        <v>ILOGMM001-CORP-1</v>
+        <v>ILOGAIR001-HYD</v>
       </c>
       <c r="D30" t="str">
-        <v>150000</v>
+        <v>4166</v>
       </c>
       <c r="E30" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>HYD-AWL</v>
       </c>
       <c r="F30" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G30" t="str">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="str">
-        <v>Mukand Infotel Private Limited</v>
-      </c>
-      <c r="B31" t="str">
-        <v>N7523</v>
-      </c>
-      <c r="C31" t="str">
-        <v>ILOGMNET01</v>
-      </c>
-      <c r="D31" t="str">
-        <v>2360</v>
-      </c>
-      <c r="E31" t="str">
-        <v>AWL - Guwahati Warehouse</v>
-      </c>
-      <c r="F31" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G31" t="str">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="str">
-        <v>NR Data Services Networking</v>
-      </c>
-      <c r="B32" t="str">
-        <v>ILOGNR001</v>
-      </c>
-      <c r="C32" t="str">
-        <v>ILOGNR001-GGN-1</v>
-      </c>
-      <c r="D32" t="str">
-        <v>10000</v>
-      </c>
-      <c r="E32" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
-      </c>
-      <c r="F32" t="str">
-        <v>Quarterly</v>
-      </c>
-      <c r="G32" t="str">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="str">
-        <v>NR Data Services Networking</v>
-      </c>
-      <c r="B33" t="str">
-        <v>ILOGNR001</v>
-      </c>
-      <c r="C33" t="str">
-        <v>ILOG001-TOUREN</v>
-      </c>
-      <c r="D33" t="str">
-        <v>7500</v>
-      </c>
-      <c r="E33" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
-      </c>
-      <c r="F33" t="str">
-        <v>Quarterly</v>
-      </c>
-      <c r="G33" t="str">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="str">
-        <v>NSS System Services</v>
-      </c>
-      <c r="B34" t="str">
-        <v>ILOGNSS001</v>
-      </c>
-      <c r="C34" t="str">
-        <v>ILOGNSS001-LKO-1</v>
-      </c>
-      <c r="D34" t="str">
-        <v>4000</v>
-      </c>
-      <c r="E34" t="str">
-        <v>AWL - Lucknow Warehouse</v>
-      </c>
-      <c r="F34" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G34" t="str">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="str">
-        <v>Scorpio Imaging System</v>
-      </c>
-      <c r="B35" t="str">
-        <v>ILOGSCO001</v>
-      </c>
-      <c r="C35" t="str">
-        <v>ILOGSCOR001-MAA-1</v>
-      </c>
-      <c r="D35" t="str">
-        <v>2500</v>
-      </c>
-      <c r="E35" t="str">
-        <v>AWL - Chennai Warehouse</v>
-      </c>
-      <c r="F35" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G35" t="str">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="str">
-        <v>Scorpio Imaging System</v>
-      </c>
-      <c r="B36" t="str">
-        <v>ILOGSCO001</v>
-      </c>
-      <c r="C36" t="str">
-        <v>ILOGSCOR001-PUNE001</v>
-      </c>
-      <c r="D36" t="str">
-        <v>3000</v>
-      </c>
-      <c r="E36" t="str">
-        <v>AWL - Pune Warehouse</v>
-      </c>
-      <c r="F36" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G36" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="str">
-        <v>Vodafone Idea Limited</v>
-      </c>
-      <c r="B37" t="str">
-        <v>165169033</v>
-      </c>
-      <c r="C37" t="str">
-        <v>9899053605-Ishan</v>
-      </c>
-      <c r="D37" t="str">
-        <v>399</v>
-      </c>
-      <c r="E37" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F37" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G37" t="str">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="str">
-        <v>Vodafone Idea Limited</v>
-      </c>
-      <c r="B38" t="str">
-        <v>13871257</v>
-      </c>
-      <c r="C38" t="str">
-        <v>9899359989-RRP-1</v>
-      </c>
-      <c r="D38" t="str">
-        <v>1000</v>
-      </c>
-      <c r="E38" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F38" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G38" t="str">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="str">
-        <v>Amazon</v>
-      </c>
-      <c r="B39" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
-      </c>
-      <c r="C39" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
-      </c>
-      <c r="D39" t="str">
-        <v>999</v>
-      </c>
-      <c r="E39" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F39" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G39" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="str">
-        <v>GODADDY</v>
-      </c>
-      <c r="B40" t="str">
-        <v>123960105</v>
-      </c>
-      <c r="C40" t="str">
-        <v>ILOGGODADDY001</v>
-      </c>
-      <c r="D40" t="str">
-        <v>10764</v>
-      </c>
-      <c r="E40" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F40" t="str">
-        <v>Annually</v>
-      </c>
-      <c r="G40" t="str">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="str">
-        <v>Kikai Technologies Private Limited</v>
-      </c>
-      <c r="B41" t="str">
-        <v>ILOGKIKAI001-SEO</v>
-      </c>
-      <c r="C41" t="str">
-        <v>ILOGKIKAI001-SEO</v>
-      </c>
-      <c r="D41" t="str">
-        <v>190000</v>
-      </c>
-      <c r="E41" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F41" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G41" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="str">
-        <v>Kikai Technologies Private Limited</v>
-      </c>
-      <c r="B42" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
-      </c>
-      <c r="C42" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
-      </c>
-      <c r="D42" t="str">
-        <v>110000</v>
-      </c>
-      <c r="E42" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F42" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G42" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="str">
-        <v>Kikai Technologies Private Limited</v>
-      </c>
-      <c r="B43" t="str">
-        <v>DBOXKIKAI001-SEO</v>
-      </c>
-      <c r="C43" t="str">
-        <v>DBOXKIKAI001-SEO</v>
-      </c>
-      <c r="D43" t="str">
-        <v>20000</v>
-      </c>
-      <c r="E43" t="str">
-        <v/>
-      </c>
-      <c r="F43" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G43" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="str">
-        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
-      </c>
-      <c r="B44" t="str">
-        <v>NXT001</v>
-      </c>
-      <c r="C44" t="str">
-        <v>ILOGNXT001</v>
-      </c>
-      <c r="D44" t="str">
-        <v>55000</v>
-      </c>
-      <c r="E44" t="str">
-        <v>AWL - Gurgaon Head Office</v>
-      </c>
-      <c r="F44" t="str">
-        <v>Monthly</v>
-      </c>
-      <c r="G44" t="str">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="str">
-        <v>AIRTEL</v>
-      </c>
-      <c r="B45" t="str">
-        <v>19682805</v>
-      </c>
-      <c r="C45" t="str">
-        <v>ILOGAIR001-HYD</v>
-      </c>
-      <c r="D45" t="str">
-        <v>4166</v>
-      </c>
-      <c r="E45" t="str">
-        <v>HYD-AWL</v>
-      </c>
-      <c r="F45" t="str">
-        <v>Quarterly</v>
-      </c>
-      <c r="G45" t="str">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G45"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G30"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/recurring.xlsx
+++ b/recurring.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G30"/>
+  <dimension ref="A1:G64"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -427,25 +427,25 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>AIRTEL</v>
+        <v>Advaitha Technogies</v>
       </c>
       <c r="B2" t="str">
-        <v>19682805</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="C2" t="str">
-        <v>6721669-AHM-1</v>
+        <v>ILOGADV001</v>
       </c>
       <c r="D2" t="str">
-        <v>4166</v>
+        <v>11000</v>
       </c>
       <c r="E2" t="str">
-        <v>AWL - Ahmedabad Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F2" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G2" t="str">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -456,13 +456,13 @@
         <v>19682805</v>
       </c>
       <c r="C3" t="str">
-        <v>19682805</v>
+        <v>6721669-AHM-1</v>
       </c>
       <c r="D3" t="str">
-        <v>6666</v>
+        <v>4166</v>
       </c>
       <c r="E3" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Ahmedabad Warehouse</v>
       </c>
       <c r="F3" t="str">
         <v>Quarterly</v>
@@ -476,22 +476,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B4" t="str">
-        <v>19682805</v>
+        <v>7015898060</v>
       </c>
       <c r="C4" t="str">
-        <v>19682805-DEL-1</v>
+        <v>01244279460-CORP-1</v>
       </c>
       <c r="D4" t="str">
-        <v>5416</v>
+        <v>250</v>
       </c>
       <c r="E4" t="str">
-        <v>AWL - Delhi GTK Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F4" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G4" t="str">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
@@ -499,22 +499,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B5" t="str">
-        <v>19682805</v>
+        <v>1148795355</v>
       </c>
       <c r="C5" t="str">
-        <v>19682805-GGN-1</v>
+        <v>ILOGDATA001-CORP-1</v>
       </c>
       <c r="D5" t="str">
-        <v>6666</v>
+        <v>36000</v>
       </c>
       <c r="E5" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F5" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G5" t="str">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="6">
@@ -522,22 +522,22 @@
         <v>AIRTEL</v>
       </c>
       <c r="B6" t="str">
-        <v>19682805</v>
+        <v>7038063008</v>
       </c>
       <c r="C6" t="str">
-        <v>19682805-GGN2-1</v>
+        <v>956298-PRI-CORP-1</v>
       </c>
       <c r="D6" t="str">
-        <v>6666</v>
+        <v>12000</v>
       </c>
       <c r="E6" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F6" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G6" t="str">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
@@ -548,10 +548,10 @@
         <v>19682805</v>
       </c>
       <c r="C7" t="str">
-        <v>ILOGARAVALI001</v>
+        <v>19682805</v>
       </c>
       <c r="D7" t="str">
-        <v>5417</v>
+        <v>6666</v>
       </c>
       <c r="E7" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -565,140 +565,140 @@
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>AONE Copier Services Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B8" t="str">
-        <v>ILOGAONE001</v>
+        <v>7010625278</v>
       </c>
       <c r="C8" t="str">
-        <v>A12GGN2010144-GGN2-3</v>
+        <v>124451125048_DSL-CORP-1</v>
       </c>
       <c r="D8" t="str">
-        <v>5000</v>
+        <v>499</v>
       </c>
       <c r="E8" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F8" t="str">
         <v>Monthly</v>
       </c>
       <c r="G8" t="str">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>Dream Net Services</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B9" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>19682805</v>
       </c>
       <c r="C9" t="str">
-        <v>ILOGDREAMNET</v>
+        <v>19682805-DEL-1</v>
       </c>
       <c r="D9" t="str">
-        <v>2916</v>
+        <v>5416</v>
       </c>
       <c r="E9" t="str">
-        <v>AWL - Bhiwandi Warehouse</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F9" t="str">
-        <v>Annually</v>
+        <v>Quarterly</v>
       </c>
       <c r="G9" t="str">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>Elxire IT Services Private Limited</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B10" t="str">
-        <v>ILOGELX001</v>
+        <v>19682805</v>
       </c>
       <c r="C10" t="str">
-        <v>ILOGELX001-GGN2-1</v>
+        <v>19682805-GGN-1</v>
       </c>
       <c r="D10" t="str">
-        <v>5417</v>
+        <v>6666</v>
       </c>
       <c r="E10" t="str">
-        <v>AWL - Gurgaon Bhondsi Warehouse</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F10" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G10" t="str">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>Giga Network Communications</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B11" t="str">
-        <v>ILOGGIGA001</v>
+        <v>19682805</v>
       </c>
       <c r="C11" t="str">
-        <v>GIGA-HYD-1</v>
+        <v>19682805-GGN2-1</v>
       </c>
       <c r="D11" t="str">
-        <v>1650</v>
+        <v>6666</v>
       </c>
       <c r="E11" t="str">
-        <v>AWL - Hyderabad Warehouse</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F11" t="str">
-        <v>6 Months</v>
+        <v>Quarterly</v>
       </c>
       <c r="G11" t="str">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>AIRTEL</v>
       </c>
       <c r="B12" t="str">
-        <v>01E9EF-56197C-C5A763</v>
+        <v>19682805</v>
       </c>
       <c r="C12" t="str">
-        <v>ILOG-GOOGLE-CLOUD</v>
+        <v>ILOGARAVALI001</v>
       </c>
       <c r="D12" t="str">
-        <v>17000</v>
+        <v>5417</v>
       </c>
       <c r="E12" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F12" t="str">
-        <v>Monthly</v>
+        <v>Quarterly</v>
       </c>
       <c r="G12" t="str">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>Google India Pvt. Ltd</v>
+        <v>Alok Computers</v>
       </c>
       <c r="B13" t="str">
-        <v>1226-7792-2898</v>
+        <v>ILOGALOK001</v>
       </c>
       <c r="C13" t="str">
-        <v>ILOGGOOGEPX01</v>
+        <v>ILOGALOK001-AHM-1</v>
       </c>
       <c r="D13" t="str">
-        <v>1800</v>
+        <v>1500</v>
       </c>
       <c r="E13" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Ahmedabad Warehouse</v>
       </c>
       <c r="F13" t="str">
         <v>Monthly</v>
       </c>
       <c r="G13" t="str">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14">
@@ -709,13 +709,13 @@
         <v>ILOGAONE001</v>
       </c>
       <c r="C14" t="str">
-        <v>A11NOR010052-DEL3-1</v>
+        <v>A12CORP010055-HO-1</v>
       </c>
       <c r="D14" t="str">
-        <v>5000</v>
+        <v>9000</v>
       </c>
       <c r="E14" t="str">
-        <v>AWL - Delhi GTK Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F14" t="str">
         <v>Monthly</v>
@@ -726,22 +726,22 @@
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B15" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C15" t="str">
-        <v>ANYSPAZE-KNOWLARITY001</v>
+        <v>A12GGN2010144-GGN-1</v>
       </c>
       <c r="D15" t="str">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="E15" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
       </c>
       <c r="F15" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G15" t="str">
         <v>1</v>
@@ -749,68 +749,68 @@
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B16" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C16" t="str">
-        <v>DOXBOX-KNOWLARITY001</v>
+        <v>A12GGN2010144-GGN2-1</v>
       </c>
       <c r="D16" t="str">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="E16" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F16" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G16" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B17" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C17" t="str">
-        <v>EPRONTO-KNOWLARITY001</v>
+        <v>A12GGN2010144-GGN2-2</v>
       </c>
       <c r="D17" t="str">
-        <v>1400</v>
+        <v>2500</v>
       </c>
       <c r="E17" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F17" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G17" t="str">
-        <v>20</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>Knowlarity Communications Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B18" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C18" t="str">
-        <v>AWL-KNOWLARITY001</v>
+        <v>A12GGN2010144-GGN2-3</v>
       </c>
       <c r="D18" t="str">
-        <v>1250</v>
+        <v>5000</v>
       </c>
       <c r="E18" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F18" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G18" t="str">
         <v>1</v>
@@ -818,131 +818,131 @@
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>Mukand Infotel Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B19" t="str">
-        <v>N7523</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C19" t="str">
-        <v>ILOGMNET01</v>
+        <v>A12GGN2010144-GGN2-4</v>
       </c>
       <c r="D19" t="str">
-        <v>2360</v>
+        <v>2500</v>
       </c>
       <c r="E19" t="str">
-        <v>AWL - Guwahati Warehouse</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F19" t="str">
         <v>Monthly</v>
       </c>
       <c r="G19" t="str">
-        <v>11</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>NR Data Services Networking</v>
+        <v>Microsoft Corporation (India) Private Limited</v>
       </c>
       <c r="B20" t="str">
-        <v>ILOGNR001</v>
+        <v>8004402038</v>
       </c>
       <c r="C20" t="str">
-        <v>ILOGNR001-GGN-1</v>
+        <v>8004402038-AZURE</v>
       </c>
       <c r="D20" t="str">
-        <v>10000</v>
+        <v>53000</v>
       </c>
       <c r="E20" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F20" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G20" t="str">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
-        <v>NR Data Services Networking</v>
+        <v>Broadbill Information Systems Private Limited</v>
       </c>
       <c r="B21" t="str">
-        <v>ILOGNR001</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="C21" t="str">
-        <v>ILOG001-TOUREN</v>
+        <v>ILOGBROAD001</v>
       </c>
       <c r="D21" t="str">
-        <v>7500</v>
+        <v>4500</v>
       </c>
       <c r="E21" t="str">
-        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+        <v>AWL - Kolkata Warehouse</v>
       </c>
       <c r="F21" t="str">
-        <v>Quarterly</v>
+        <v>Monthly</v>
       </c>
       <c r="G21" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="str">
-        <v>Shyam Spectra Private Limited</v>
+        <v>Dream Net Services</v>
       </c>
       <c r="B22" t="str">
-        <v>9082431</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="C22" t="str">
-        <v>AWLSPECTRA001</v>
+        <v>ILOGDREAMNET</v>
       </c>
       <c r="D22" t="str">
-        <v>10834</v>
+        <v>2916</v>
       </c>
       <c r="E22" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Bhiwandi Warehouse</v>
       </c>
       <c r="F22" t="str">
-        <v>Monthly</v>
+        <v>Annually</v>
       </c>
       <c r="G22" t="str">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>Elxire IT Services Private Limited</v>
       </c>
       <c r="B23" t="str">
-        <v>13871257</v>
+        <v>ILOGELX001</v>
       </c>
       <c r="C23" t="str">
-        <v>9899359989-RRP-1</v>
+        <v>ILOGELX001-GGN2-1</v>
       </c>
       <c r="D23" t="str">
-        <v>1000</v>
+        <v>5417</v>
       </c>
       <c r="E23" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Gurgaon Bhondsi Warehouse</v>
       </c>
       <c r="F23" t="str">
         <v>Monthly</v>
       </c>
       <c r="G23" t="str">
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="str">
-        <v>Vodafone Idea Limited</v>
+        <v>Fretron Private Limited</v>
       </c>
       <c r="B24" t="str">
-        <v>167933548</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="C24" t="str">
-        <v>ILOGVODAIDEA01</v>
+        <v>ILOGFRETRON</v>
       </c>
       <c r="D24" t="str">
-        <v>249</v>
+        <v>16000</v>
       </c>
       <c r="E24" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -951,50 +951,50 @@
         <v>Monthly</v>
       </c>
       <c r="G24" t="str">
-        <v>24</v>
+        <v>31</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="str">
-        <v>Amazon</v>
+        <v>Giga Network Communications</v>
       </c>
       <c r="B25" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
+        <v>ILOGGIGA001</v>
       </c>
       <c r="C25" t="str">
-        <v>AMZ-PRIME-RAHUL</v>
+        <v>GIGA-HYD-1</v>
       </c>
       <c r="D25" t="str">
-        <v>999</v>
+        <v>1650</v>
       </c>
       <c r="E25" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Hyderabad Warehouse</v>
       </c>
       <c r="F25" t="str">
-        <v>Annually</v>
+        <v>6 Months</v>
       </c>
       <c r="G25" t="str">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="str">
-        <v>GODADDY</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B26" t="str">
-        <v>123960105</v>
+        <v>01E9EF-56197C-C5A763</v>
       </c>
       <c r="C26" t="str">
-        <v>ILOGGODADDY001</v>
+        <v>ILOG-GOOGLE-CLOUD</v>
       </c>
       <c r="D26" t="str">
-        <v>10764</v>
+        <v>17000</v>
       </c>
       <c r="E26" t="str">
         <v>AWL - Gurgaon Head Office</v>
       </c>
       <c r="F26" t="str">
-        <v>Annually</v>
+        <v>Monthly</v>
       </c>
       <c r="G26" t="str">
         <v>31</v>
@@ -1002,16 +1002,16 @@
     </row>
     <row r="27">
       <c r="A27" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>Google India Pvt. Ltd</v>
       </c>
       <c r="B27" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
+        <v>1226-7792-2898</v>
       </c>
       <c r="C27" t="str">
-        <v>ILOGKIKAI001-OUTSOURCE</v>
+        <v>ILOGGOOGEPX01</v>
       </c>
       <c r="D27" t="str">
-        <v>110000</v>
+        <v>1800</v>
       </c>
       <c r="E27" t="str">
         <v>AWL - Gurgaon Head Office</v>
@@ -1020,24 +1020,24 @@
         <v>Monthly</v>
       </c>
       <c r="G27" t="str">
-        <v>1</v>
+        <v>31</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>Kikai Technologies Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B28" t="str">
-        <v>DBOXKIKAI001-SEO</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C28" t="str">
-        <v>DBOXKIKAI001-SEO</v>
+        <v>A11NOR010052-DEL3-1</v>
       </c>
       <c r="D28" t="str">
-        <v>20000</v>
+        <v>5000</v>
       </c>
       <c r="E28" t="str">
-        <v/>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F28" t="str">
         <v>Monthly</v>
@@ -1048,19 +1048,19 @@
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
+        <v>AONE Copier Services Private Limited</v>
       </c>
       <c r="B29" t="str">
-        <v>NXT001</v>
+        <v>ILOGAONE001</v>
       </c>
       <c r="C29" t="str">
-        <v>ILOGNXT001</v>
+        <v>A11NOR010052-DEL-1</v>
       </c>
       <c r="D29" t="str">
-        <v>55000</v>
+        <v>2500</v>
       </c>
       <c r="E29" t="str">
-        <v>AWL - Gurgaon Head Office</v>
+        <v>AWL - Delhi GTK Warehouse</v>
       </c>
       <c r="F29" t="str">
         <v>Monthly</v>
@@ -1071,30 +1071,812 @@
     </row>
     <row r="30">
       <c r="A30" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B30" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="C30" t="str">
+        <v>A11NOR010052-DEL-2</v>
+      </c>
+      <c r="D30" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E30" t="str">
+        <v>AWL - Delhi GTK Warehouse</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G30" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="str">
+        <v>AONE Copier Services Private Limited</v>
+      </c>
+      <c r="B31" t="str">
+        <v>ILOGAONE001</v>
+      </c>
+      <c r="C31" t="str">
+        <v>A11NOR010052-DEL-3</v>
+      </c>
+      <c r="D31" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E31" t="str">
+        <v>AWL - Delhi GTK Warehouse</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G31" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="str">
+        <v>Aspirant Tech Services</v>
+      </c>
+      <c r="B32" t="str">
+        <v>ILOGASP001</v>
+      </c>
+      <c r="C32" t="str">
+        <v>ILOGASP001-GUW-1</v>
+      </c>
+      <c r="D32" t="str">
+        <v>1695</v>
+      </c>
+      <c r="E32" t="str">
+        <v>AWL - Guwahati Warehouse</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G32" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B33" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C33" t="str">
+        <v>GPSBOM4000000-BOM-1</v>
+      </c>
+      <c r="D33" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E33" t="str">
+        <v>AWL - Mumbai Warehouse</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G33" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B34" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C34" t="str">
+        <v>GPSMAA4000000-MAA-1</v>
+      </c>
+      <c r="D34" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E34" t="str">
+        <v>AWL - Chennai Warehouse</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G34" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B35" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C35" t="str">
+        <v>GPSCCU4000000-BLR-1</v>
+      </c>
+      <c r="D35" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E35" t="str">
+        <v>AWL - Bangalore Warehouse</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G35" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B36" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C36" t="str">
+        <v>GPSHYD4000-HYD01</v>
+      </c>
+      <c r="D36" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E36" t="str">
+        <v>AWL - Hyderabad Warehouse</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G36" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B37" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C37" t="str">
+        <v>GPSBIR4000000-BIR-1</v>
+      </c>
+      <c r="D37" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E37" t="str">
+        <v>AWL - Bhiwandi Warehouse</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G37" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B38" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C38" t="str">
+        <v>GPSBIR4000000-BIR-2</v>
+      </c>
+      <c r="D38" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E38" t="str">
+        <v>AWL - Bhiwandi Warehouse</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G38" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="str">
+        <v>GPS Office Equipment Private Limited</v>
+      </c>
+      <c r="B39" t="str">
+        <v>ILOGGPS001</v>
+      </c>
+      <c r="C39" t="str">
+        <v>GPSHYD4000006-HYD02</v>
+      </c>
+      <c r="D39" t="str">
+        <v>5000</v>
+      </c>
+      <c r="E39" t="str">
+        <v>AWL - Hyderabad Warehouse</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G39" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="str">
+        <v>Hirezone Systems Private Limited</v>
+      </c>
+      <c r="B40" t="str">
+        <v>ILOGHIREZONE-001</v>
+      </c>
+      <c r="C40" t="str">
+        <v>ILOGHIREZONE001-CCU</v>
+      </c>
+      <c r="D40" t="str">
+        <v>900</v>
+      </c>
+      <c r="E40" t="str">
+        <v>AWL - Kolkata Warehouse</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G40" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="str">
+        <v>Knowlarity Communications Private Limited</v>
+      </c>
+      <c r="B41" t="str">
+        <v>ANYSPAZE-KNOWLARITY001</v>
+      </c>
+      <c r="C41" t="str">
+        <v>ANYSPAZE-KNOWLARITY001</v>
+      </c>
+      <c r="D41" t="str">
+        <v>1250</v>
+      </c>
+      <c r="E41" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G41" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="str">
+        <v>Knowlarity Communications Private Limited</v>
+      </c>
+      <c r="B42" t="str">
+        <v>DOXBOX-KNOWLARITY001</v>
+      </c>
+      <c r="C42" t="str">
+        <v>DOXBOX-KNOWLARITY001</v>
+      </c>
+      <c r="D42" t="str">
+        <v>1250</v>
+      </c>
+      <c r="E42" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G42" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="str">
+        <v>Knowlarity Communications Private Limited</v>
+      </c>
+      <c r="B43" t="str">
+        <v>EPRONTO-KNOWLARITY001</v>
+      </c>
+      <c r="C43" t="str">
+        <v>EPRONTO-KNOWLARITY001</v>
+      </c>
+      <c r="D43" t="str">
+        <v>1400</v>
+      </c>
+      <c r="E43" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G43" t="str">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="str">
+        <v>Knowlarity Communications Private Limited</v>
+      </c>
+      <c r="B44" t="str">
+        <v>AWL-KNOWLARITY001</v>
+      </c>
+      <c r="C44" t="str">
+        <v>AWL-KNOWLARITY001</v>
+      </c>
+      <c r="D44" t="str">
+        <v>1250</v>
+      </c>
+      <c r="E44" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G44" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="str">
+        <v>Mukand Infotel Private Limited</v>
+      </c>
+      <c r="B45" t="str">
+        <v>N7523</v>
+      </c>
+      <c r="C45" t="str">
+        <v>ILOGMNET01</v>
+      </c>
+      <c r="D45" t="str">
+        <v>2360</v>
+      </c>
+      <c r="E45" t="str">
+        <v>AWL - Guwahati Warehouse</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G45" t="str">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="str">
+        <v>NR Data Services Networking</v>
+      </c>
+      <c r="B46" t="str">
+        <v>ILOGNR001</v>
+      </c>
+      <c r="C46" t="str">
+        <v>ILOGNR001-GGN-1</v>
+      </c>
+      <c r="D46" t="str">
+        <v>10000</v>
+      </c>
+      <c r="E46" t="str">
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Quarterly</v>
+      </c>
+      <c r="G46" t="str">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="str">
+        <v>NR Data Services Networking</v>
+      </c>
+      <c r="B47" t="str">
+        <v>ILOGNR001</v>
+      </c>
+      <c r="C47" t="str">
+        <v>ILOG001-TOUREN</v>
+      </c>
+      <c r="D47" t="str">
+        <v>7500</v>
+      </c>
+      <c r="E47" t="str">
+        <v>AWL - Gurgaon Badshahpur Warehouse</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Quarterly</v>
+      </c>
+      <c r="G47" t="str">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="str">
+        <v>NSS System Services</v>
+      </c>
+      <c r="B48" t="str">
+        <v>ILOGNSS001</v>
+      </c>
+      <c r="C48" t="str">
+        <v>ILOGNSS001-LKO-1</v>
+      </c>
+      <c r="D48" t="str">
+        <v>4000</v>
+      </c>
+      <c r="E48" t="str">
+        <v>AWL - Lucknow Warehouse</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G48" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="str">
+        <v>Scorpio Imaging System</v>
+      </c>
+      <c r="B49" t="str">
+        <v>ILOGSCO001</v>
+      </c>
+      <c r="C49" t="str">
+        <v>ILOGSCOR001-MAA-1</v>
+      </c>
+      <c r="D49" t="str">
+        <v>2500</v>
+      </c>
+      <c r="E49" t="str">
+        <v>AWL - Chennai Warehouse</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G49" t="str">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="str">
+        <v>Scorpio Imaging System</v>
+      </c>
+      <c r="B50" t="str">
+        <v>ILOGSCO001</v>
+      </c>
+      <c r="C50" t="str">
+        <v>ILOGSCOR001-PUNE001</v>
+      </c>
+      <c r="D50" t="str">
+        <v>3000</v>
+      </c>
+      <c r="E50" t="str">
+        <v>AWL - Pune Warehouse</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G50" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="str">
+        <v>Sify Technologies Limited</v>
+      </c>
+      <c r="B51" t="str">
+        <v>413494</v>
+      </c>
+      <c r="C51" t="str">
+        <v>413494-10-BOM-1</v>
+      </c>
+      <c r="D51" t="str">
+        <v>9578</v>
+      </c>
+      <c r="E51" t="str">
+        <v>AWL - Mumbai Warehouse</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Quarterly</v>
+      </c>
+      <c r="G51" t="str">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="str">
+        <v>Shyam Spectra Private Limited</v>
+      </c>
+      <c r="B52" t="str">
+        <v>9082431</v>
+      </c>
+      <c r="C52" t="str">
+        <v>AWLSPECTRA001</v>
+      </c>
+      <c r="D52" t="str">
+        <v>10834</v>
+      </c>
+      <c r="E52" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G52" t="str">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="str">
+        <v>Vodafone Idea Limited</v>
+      </c>
+      <c r="B53" t="str">
+        <v>165169033</v>
+      </c>
+      <c r="C53" t="str">
+        <v>9899053605-Ishan</v>
+      </c>
+      <c r="D53" t="str">
+        <v>399</v>
+      </c>
+      <c r="E53" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G53" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="str">
+        <v>Vodafone Idea Limited</v>
+      </c>
+      <c r="B54" t="str">
+        <v>13838424</v>
+      </c>
+      <c r="C54" t="str">
+        <v>9899057096-Rahul-1</v>
+      </c>
+      <c r="D54" t="str">
+        <v>1300</v>
+      </c>
+      <c r="E54" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G54" t="str">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="str">
+        <v>Vodafone Idea Limited</v>
+      </c>
+      <c r="B55" t="str">
+        <v>13871257</v>
+      </c>
+      <c r="C55" t="str">
+        <v>9899359989-RRP-1</v>
+      </c>
+      <c r="D55" t="str">
+        <v>1000</v>
+      </c>
+      <c r="E55" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G55" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="str">
+        <v>Y Net Communication</v>
+      </c>
+      <c r="B56" t="str">
+        <v>ILOGYNET001</v>
+      </c>
+      <c r="C56" t="str">
+        <v>YNET-MAA-1</v>
+      </c>
+      <c r="D56" t="str">
+        <v>3000</v>
+      </c>
+      <c r="E56" t="str">
+        <v>AWL - Chennai Warehouse</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G56" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="str">
+        <v>Vodafone Idea Limited</v>
+      </c>
+      <c r="B57" t="str">
+        <v>167933548</v>
+      </c>
+      <c r="C57" t="str">
+        <v>ILOGVODAIDEA01</v>
+      </c>
+      <c r="D57" t="str">
+        <v>249</v>
+      </c>
+      <c r="E57" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G57" t="str">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="str">
+        <v>Amazon</v>
+      </c>
+      <c r="B58" t="str">
+        <v>AMZ-PRIME-RAHUL</v>
+      </c>
+      <c r="C58" t="str">
+        <v>AMZ-PRIME-RAHUL</v>
+      </c>
+      <c r="D58" t="str">
+        <v>999</v>
+      </c>
+      <c r="E58" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F58" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G58" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="str">
+        <v>GODADDY</v>
+      </c>
+      <c r="B59" t="str">
+        <v>123960105</v>
+      </c>
+      <c r="C59" t="str">
+        <v>ILOGGODADDY001</v>
+      </c>
+      <c r="D59" t="str">
+        <v>10764</v>
+      </c>
+      <c r="E59" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F59" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G59" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B60" t="str">
+        <v>ILOGKIKAI001-OUTSOURCE</v>
+      </c>
+      <c r="C60" t="str">
+        <v>ILOGKIKAI001-OUTSOURCE</v>
+      </c>
+      <c r="D60" t="str">
+        <v>110000</v>
+      </c>
+      <c r="E60" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F60" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G60" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="str">
+        <v>Kikai Technologies Private Limited</v>
+      </c>
+      <c r="B61" t="str">
+        <v>DBOXKIKAI001-SEO</v>
+      </c>
+      <c r="C61" t="str">
+        <v>DBOXKIKAI001-SEO</v>
+      </c>
+      <c r="D61" t="str">
+        <v>20000</v>
+      </c>
+      <c r="E61" t="str">
+        <v/>
+      </c>
+      <c r="F61" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G61" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="str">
+        <v>Nxtgen Datcenter &amp; Cloud Technologies Private Limited</v>
+      </c>
+      <c r="B62" t="str">
+        <v>NXT001</v>
+      </c>
+      <c r="C62" t="str">
+        <v>ILOGNXT001</v>
+      </c>
+      <c r="D62" t="str">
+        <v>55000</v>
+      </c>
+      <c r="E62" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F62" t="str">
+        <v>Monthly</v>
+      </c>
+      <c r="G62" t="str">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="str">
+        <v>Yotta Infrastructure Solutions LLP</v>
+      </c>
+      <c r="B63" t="str">
+        <v>13348</v>
+      </c>
+      <c r="C63" t="str">
+        <v>ILOGYOTTA001</v>
+      </c>
+      <c r="D63" t="str">
+        <v>1500</v>
+      </c>
+      <c r="E63" t="str">
+        <v>AWL - Gurgaon Head Office</v>
+      </c>
+      <c r="F63" t="str">
+        <v>Annually</v>
+      </c>
+      <c r="G63" t="str">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="str">
         <v>AIRTEL</v>
       </c>
-      <c r="B30" t="str">
+      <c r="B64" t="str">
         <v>19682805</v>
       </c>
-      <c r="C30" t="str">
+      <c r="C64" t="str">
         <v>ILOGAIR001-HYD</v>
       </c>
-      <c r="D30" t="str">
+      <c r="D64" t="str">
         <v>4166</v>
       </c>
-      <c r="E30" t="str">
+      <c r="E64" t="str">
         <v>HYD-AWL</v>
       </c>
-      <c r="F30" t="str">
+      <c r="F64" t="str">
         <v>Quarterly</v>
       </c>
-      <c r="G30" t="str">
+      <c r="G64" t="str">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:G30"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:G64"/>
   </ignoredErrors>
 </worksheet>
 </file>